--- a/indigo_app/tests/xlsx_exporter/commencements_passive_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_output_expected.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60914132-12F3-2546-A956-0E247B89F1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26920" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>country</t>
   </si>
@@ -170,9 +176,6 @@
   </si>
   <si>
     <t>/akn/za/act/2020/4 - Commenced_by only</t>
-  </si>
-  <si>
-    <t>(unknown)</t>
   </si>
   <si>
     <t>Commencement notice 1</t>
@@ -199,14 +202,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,15 +242,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -287,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,9 +338,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,6 +390,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +583,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -659,7 +720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -694,7 +755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -723,7 +784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -742,8 +803,8 @@
       <c r="O5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>52</v>
+      <c r="P5" s="2">
+        <v>2958101</v>
       </c>
       <c r="AB5" t="s">
         <v>36</v>
@@ -755,15 +816,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -787,21 +848,21 @@
         <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -818,28 +879,28 @@
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>52</v>
+      <c r="W7" s="2">
+        <v>2958101</v>
       </c>
       <c r="AB7" t="s">
         <v>36</v>
       </c>
       <c r="AC7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -851,10 +912,10 @@
         <v>36</v>
       </c>
       <c r="AC8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" t="s">
         <v>58</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/indigo_app/tests/xlsx_exporter/commencements_passive_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_output_expected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60914132-12F3-2546-A956-0E247B89F1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B5E79-A719-AF4C-8629-35A40F27F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="26920" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="30280" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>country</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>/akn/za/act/2020/6 - Error</t>
+  </si>
+  <si>
+    <t>principal</t>
   </si>
 </sst>
 </file>
@@ -584,19 +587,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,70 +634,73 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -710,17 +716,17 @@
       <c r="J2" s="1">
         <v>43831</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -739,23 +745,24 @@
       <c r="K3" s="1">
         <v>43987</v>
       </c>
-      <c r="O3" t="s">
+      <c r="L3" s="1"/>
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>43987</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -774,17 +781,18 @@
       <c r="K4" s="1">
         <v>43987</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="L4" s="1"/>
+      <c r="AC4" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -800,23 +808,23 @@
       <c r="J5" s="1">
         <v>43831</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>2958101</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>50</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -835,26 +843,27 @@
       <c r="K6" s="1">
         <v>44013</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>42</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>43987</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -873,26 +882,27 @@
       <c r="K7" s="1">
         <v>44013</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>2958101</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>54</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -908,13 +918,13 @@
       <c r="J8" s="1">
         <v>43983</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>36</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>57</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>58</v>
       </c>
     </row>

--- a/indigo_app/tests/xlsx_exporter/commencements_passive_output_expected.xlsx
+++ b/indigo_app/tests/xlsx_exporter/commencements_passive_output_expected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robley/code/work/indigo/indigo_app/tests/xlsx_exporter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/coding/laws.africa/indigo/indigo_app/tests/xlsx_exporter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B5E79-A719-AF4C-8629-35A40F27F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273CB1DE-7334-F145-8E2C-CCADD7029B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="30280" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Works" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>stub</t>
   </si>
   <si>
-    <t>taxonomy</t>
-  </si>
-  <si>
     <t>primary_work</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>principal</t>
+  </si>
+  <si>
+    <t>taxonomy_topic</t>
   </si>
 </sst>
 </file>
@@ -267,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,9 +307,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,26 +342,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,26 +377,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +556,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,110 +600,110 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="1">
         <v>43831</v>
       </c>
       <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1">
         <v>43831</v>
@@ -747,33 +713,33 @@
       </c>
       <c r="L3" s="1"/>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="1">
         <v>43987</v>
       </c>
       <c r="AC3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
         <v>41</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
         <v>43831</v>
@@ -783,59 +749,59 @@
       </c>
       <c r="L4" s="1"/>
       <c r="AC4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" t="s">
         <v>46</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1">
         <v>43831</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2">
         <v>2958101</v>
       </c>
       <c r="AC5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" t="s">
         <v>50</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1">
         <v>43983</v>
@@ -845,36 +811,36 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X6" s="1">
         <v>43987</v>
       </c>
       <c r="AC6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <v>43983</v>
@@ -884,48 +850,48 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X7" s="2">
         <v>2958101</v>
       </c>
       <c r="AC7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1">
         <v>43983</v>
       </c>
       <c r="AC8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
         <v>57</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
